--- a/VRPresentation/LearningModes.xlsx
+++ b/VRPresentation/LearningModes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CalPoly\EC4990AINew\AIBookSlides\VRPresentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016BF2B7-D91D-4212-A22B-DB561E26BED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACFDADE7-0B02-4FC1-A9C7-269FB92E9B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{DCD20914-9014-4232-ACFA-3D41AB218E55}"/>
   </bookViews>
@@ -53,12 +53,6 @@
   </si>
   <si>
     <t>Online: Self-Learner</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> • low WiFi bandwidth requirement
- • students loan headsets and use
-     them at home
- • communication: live through the headsets</t>
   </si>
   <si>
     <r>
@@ -95,11 +89,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> • low WiFi bandwidth requirement
- • students loan headsets and use 
-    them at home</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 
  • communication: 
     build in avatars talk to self-learners
@@ -145,6 +134,20 @@
     students can play in browser</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve"> • low WiFi bandwidth requirement
+ • students loan headsets and use 
+    them at home
+ • communication: 
+    build in avatars talk to self-learners</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> • low WiFi bandwidth requirement
+ • students loan headsets and use
+     them at home
+ • communication: live through the 
+     headsets</t>
+  </si>
 </sst>
 </file>
 
@@ -167,7 +170,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -188,13 +191,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,18 +321,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -332,6 +332,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -670,7 +679,7 @@
   <dimension ref="D3:G7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -680,17 +689,17 @@
   <sheetData>
     <row r="3" spans="4:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7"/>
     </row>
     <row r="5" spans="4:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -699,30 +708,30 @@
     </row>
     <row r="6" spans="4:7" ht="95.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>7</v>
+      <c r="G6" s="8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="4:7" ht="186" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>6</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
